--- a/SistemaVentas.xlsx
+++ b/SistemaVentas.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SistemaVentas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4436B2EF-7E23-4C75-9F21-C8C3BD557B00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-8490" yWindow="2220" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C9F4C5FC-2DD0-4C86-878C-21EF64A1F81F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="tablas" sheetId="1" r:id="rId1"/>
+    <sheet name="registros" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,9 +26,173 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
+  <si>
+    <t>BATTA</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Empleado</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Sucursal</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>apellido_pat</t>
+  </si>
+  <si>
+    <t>apellido_mat</t>
+  </si>
+  <si>
+    <t>ci_empleado</t>
+  </si>
+  <si>
+    <t>telefono</t>
+  </si>
+  <si>
+    <t>sexo</t>
+  </si>
+  <si>
+    <t>direccion</t>
+  </si>
+  <si>
+    <t>cargo</t>
+  </si>
+  <si>
+    <t>marca</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>talla</t>
+  </si>
+  <si>
+    <t>usuario</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>nit_ci</t>
+  </si>
+  <si>
+    <t>razon_social</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>encargado</t>
+  </si>
+  <si>
+    <t>nom_usuario</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>id_empleado</t>
+  </si>
+  <si>
+    <t>id_producto</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Suarez</t>
+  </si>
+  <si>
+    <t>Alba</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Calle Los Alamos 63</t>
+  </si>
+  <si>
+    <t>Gerente General</t>
+  </si>
+  <si>
+    <t>batta</t>
+  </si>
+  <si>
+    <t>Deliz</t>
+  </si>
+  <si>
+    <t>Rojo</t>
+  </si>
+  <si>
+    <t>Mishu</t>
+  </si>
+  <si>
+    <t>Blanco</t>
+  </si>
+  <si>
+    <t>fecha_nacimiento</t>
+  </si>
+  <si>
+    <t>INT(PK)</t>
+  </si>
+  <si>
+    <t>Var(10)</t>
+  </si>
+  <si>
+    <t>Var(15)</t>
+  </si>
+  <si>
+    <t>dec(10,2)</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>id_cliente</t>
+  </si>
+  <si>
+    <t>id_sucursal</t>
+  </si>
+  <si>
+    <t>id_usuario</t>
+  </si>
+  <si>
+    <t>Var(30)</t>
+  </si>
+  <si>
+    <t>Var(50)</t>
+  </si>
+  <si>
+    <t>Var(100)</t>
+  </si>
+  <si>
+    <t>Var(20)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +200,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +241,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +529,409 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="1">
+      <selection activeCell="S5" sqref="S5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6005EE4-661E-423F-B848-D1C68F10E800}">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+    <sheetView topLeftCell="G1" workbookViewId="1">
+      <selection activeCell="P4" sqref="P4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>7904767</v>
+      </c>
+      <c r="F3">
+        <v>71446134</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3">
+        <v>85</v>
+      </c>
+      <c r="O3">
+        <v>42</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4">
+        <v>40</v>
+      </c>
+      <c r="O4">
+        <v>22</v>
+      </c>
+      <c r="P4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="K1:P1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SistemaVentas.xlsx
+++ b/SistemaVentas.xlsx
@@ -8,9 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SistemaVentas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4436B2EF-7E23-4C75-9F21-C8C3BD557B00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DD9F79-88F5-41FC-9AC2-1B7CBFFBEF21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8490" yWindow="2220" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C9F4C5FC-2DD0-4C86-878C-21EF64A1F81F}"/>
   </bookViews>
   <sheets>
@@ -533,10 +532,7 @@
   <dimension ref="B1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="1">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,10 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6005EE4-661E-423F-B848-D1C68F10E800}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
-    <sheetView topLeftCell="G1" workbookViewId="1">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>

--- a/SistemaVentas.xlsx
+++ b/SistemaVentas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SistemaVentas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DD9F79-88F5-41FC-9AC2-1B7CBFFBEF21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D74A07D-7BA9-4395-BF9D-DFA83E89FA3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C9F4C5FC-2DD0-4C86-878C-21EF64A1F81F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C9F4C5FC-2DD0-4C86-878C-21EF64A1F81F}"/>
   </bookViews>
   <sheets>
     <sheet name="tablas" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
   <si>
     <t>BATTA</t>
   </si>
@@ -185,13 +185,58 @@
   </si>
   <si>
     <t>Var(20)</t>
+  </si>
+  <si>
+    <t>venta</t>
+  </si>
+  <si>
+    <t>Venta</t>
+  </si>
+  <si>
+    <t>detalle_venta</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>num_venta</t>
+  </si>
+  <si>
+    <t>INT(FK)</t>
+  </si>
+  <si>
+    <t>fecha_venta</t>
+  </si>
+  <si>
+    <t>Almanza</t>
+  </si>
+  <si>
+    <t>Anteza, eq. Ecuador</t>
+  </si>
+  <si>
+    <t>almanza@hotmail.com</t>
+  </si>
+  <si>
+    <t>id_detalla_venta</t>
+  </si>
+  <si>
+    <t>precio_unit</t>
+  </si>
+  <si>
+    <t>precio_tot</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>Detalle_ventas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,8 +252,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +280,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -237,10 +308,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -249,8 +321,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -529,23 +609,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N11"/>
+  <dimension ref="B1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,21 +649,24 @@
       <c r="M1" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="10" t="s">
         <v>28</v>
       </c>
       <c r="H2" t="s">
         <v>41</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="6" t="s">
         <v>46</v>
       </c>
       <c r="J2" t="s">
@@ -600,8 +684,14 @@
       <c r="N2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -632,8 +722,11 @@
       <c r="N3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -664,8 +757,11 @@
       <c r="N4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -690,8 +786,14 @@
       <c r="L5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -714,7 +816,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -731,24 +836,54 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>40</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -758,22 +893,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6005EE4-661E-423F-B848-D1C68F10E800}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -920,11 +1058,186 @@
         <v>39</v>
       </c>
     </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>7904767</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10">
+        <v>4455879</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1650</v>
+      </c>
+      <c r="M11" s="7">
+        <f ca="1">TODAY()</f>
+        <v>44342</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>400</v>
+      </c>
+      <c r="M12" s="7">
+        <f ca="1">TODAY()</f>
+        <v>44342</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K15" s="3"/>
+      <c r="L15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>85</v>
+      </c>
+      <c r="N17">
+        <v>8</v>
+      </c>
+      <c r="O17">
+        <v>680</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>40</v>
+      </c>
+      <c r="N18">
+        <v>20</v>
+      </c>
+      <c r="O18">
+        <v>800</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="K1:P1"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{1E1F3FE3-46B5-4DF2-9A5F-DBE55CC617E2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>